--- a/US/data/BOC/FTD/FTDE/old/exhibit_history.xlsx
+++ b/US/data/BOC/FTD/FTDE/old/exhibit_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\econ019fs\ftd53\tdsb2\Internet\Current\statistics\historical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{431F7067-5167-4625-8DFA-DB8FD2BDCF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85E19708-16DC-46F4-91B3-EC650740F8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1A136199-3254-4ACB-8E57-1A8F8090F576}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B2A49323-3FE4-4DA6-9C3C-EA7CB3A4CAA1}"/>
   </bookViews>
   <sheets>
     <sheet name="exhibit_history" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -704,15 +704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -743,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,22 +848,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 20" xfId="1" xr:uid="{ACE1DD79-252A-41C9-B317-DFB556BB0DA8}"/>
+    <cellStyle name="Normal 20" xfId="1" xr:uid="{AF541E62-5412-43C2-9C1F-63D44BCED0CD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -51753,7 +51737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C2D866-2D64-4029-A235-ABE360670FF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD4FC41-5522-4776-9C18-F5786003602A}">
   <sheetPr transitionEvaluation="1" codeName="Sheet2"/>
   <dimension ref="A1:IS441"/>
   <sheetViews>
@@ -67934,50 +67918,50 @@
         <v>50345</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A425" s="65">
+    <row r="425" spans="1:10" s="43" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A425" s="14">
         <v>2022</v>
       </c>
-      <c r="B425" s="46"/>
-      <c r="C425" s="25"/>
-      <c r="D425" s="56"/>
-      <c r="E425" s="25"/>
+      <c r="B425" s="23"/>
+      <c r="C425" s="23"/>
+      <c r="D425" s="24"/>
+      <c r="E425" s="45"/>
       <c r="F425" s="46"/>
-      <c r="G425" s="25"/>
-      <c r="H425" s="57"/>
-      <c r="I425" s="25"/>
+      <c r="G425" s="47"/>
+      <c r="H425" s="45"/>
+      <c r="I425" s="46"/>
       <c r="J425" s="48"/>
     </row>
-    <row r="426" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A426" s="66" t="s">
+    <row r="426" spans="1:10" s="43" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A426" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B426" s="51">
-        <v>-89692</v>
-      </c>
-      <c r="C426" s="67">
-        <v>-108864</v>
-      </c>
-      <c r="D426" s="68">
-        <v>19172</v>
-      </c>
-      <c r="E426" s="67">
-        <v>224400</v>
-      </c>
-      <c r="F426" s="51">
-        <v>155890</v>
-      </c>
-      <c r="G426" s="67">
-        <v>68511</v>
-      </c>
-      <c r="H426" s="69">
-        <v>314093</v>
-      </c>
-      <c r="I426" s="67">
-        <v>264754</v>
-      </c>
-      <c r="J426" s="54">
-        <v>49339</v>
+      <c r="B426" s="34">
+        <v>-178414</v>
+      </c>
+      <c r="C426" s="34">
+        <v>-216073</v>
+      </c>
+      <c r="D426" s="34">
+        <v>37659</v>
+      </c>
+      <c r="E426" s="59">
+        <v>453120</v>
+      </c>
+      <c r="F426" s="34">
+        <v>314760</v>
+      </c>
+      <c r="G426" s="34">
+        <v>138360</v>
+      </c>
+      <c r="H426" s="60">
+        <v>631534</v>
+      </c>
+      <c r="I426" s="34">
+        <v>530833</v>
+      </c>
+      <c r="J426" s="34">
+        <v>100701</v>
       </c>
     </row>
     <row r="427" spans="1:10">
@@ -67985,46 +67969,64 @@
         <v>11</v>
       </c>
       <c r="B427" s="46">
-        <v>-89692</v>
+        <v>-89229</v>
       </c>
       <c r="C427" s="25">
-        <v>-108864</v>
+        <v>-108603</v>
       </c>
       <c r="D427" s="56">
-        <v>19172</v>
+        <v>19374</v>
       </c>
       <c r="E427" s="25">
-        <v>224400</v>
+        <v>224490</v>
       </c>
       <c r="F427" s="46">
-        <v>155890</v>
+        <v>155983</v>
       </c>
       <c r="G427" s="25">
-        <v>68511</v>
+        <v>68507</v>
       </c>
       <c r="H427" s="57">
-        <v>314093</v>
+        <v>313720</v>
       </c>
       <c r="I427" s="25">
-        <v>264754</v>
+        <v>264586</v>
       </c>
       <c r="J427" s="48">
-        <v>49339</v>
+        <v>49133</v>
       </c>
     </row>
     <row r="428" spans="1:10">
       <c r="A428" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B428" s="46"/>
-      <c r="C428" s="25"/>
-      <c r="D428" s="56"/>
-      <c r="E428" s="25"/>
-      <c r="F428" s="46"/>
-      <c r="G428" s="25"/>
-      <c r="H428" s="57"/>
-      <c r="I428" s="25"/>
-      <c r="J428" s="48"/>
+      <c r="B428" s="46">
+        <v>-89185</v>
+      </c>
+      <c r="C428" s="25">
+        <v>-107470</v>
+      </c>
+      <c r="D428" s="56">
+        <v>18285</v>
+      </c>
+      <c r="E428" s="25">
+        <v>228630</v>
+      </c>
+      <c r="F428" s="46">
+        <v>158777</v>
+      </c>
+      <c r="G428" s="25">
+        <v>69853</v>
+      </c>
+      <c r="H428" s="57">
+        <v>317814</v>
+      </c>
+      <c r="I428" s="25">
+        <v>266246</v>
+      </c>
+      <c r="J428" s="48">
+        <v>51568</v>
+      </c>
     </row>
     <row r="429" spans="1:10">
       <c r="A429" s="58" t="s">
@@ -68069,100 +68071,100 @@
       <c r="J431" s="48"/>
     </row>
     <row r="432" spans="1:10">
-      <c r="A432" s="58" t="s">
+      <c r="A432" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B432" s="46"/>
-      <c r="C432" s="25"/>
-      <c r="D432" s="56"/>
-      <c r="E432" s="25"/>
+      <c r="C432" s="46"/>
+      <c r="D432" s="48"/>
+      <c r="E432" s="57"/>
       <c r="F432" s="46"/>
-      <c r="G432" s="25"/>
+      <c r="G432" s="48"/>
       <c r="H432" s="57"/>
-      <c r="I432" s="25"/>
+      <c r="I432" s="46"/>
       <c r="J432" s="48"/>
     </row>
-    <row r="433" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A433" s="58" t="s">
+    <row r="433" spans="1:10" ht="24.75" customHeight="1">
+      <c r="A433" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B433" s="46"/>
-      <c r="C433" s="25"/>
-      <c r="D433" s="56"/>
-      <c r="E433" s="25"/>
+      <c r="C433" s="46"/>
+      <c r="D433" s="48"/>
+      <c r="E433" s="57"/>
       <c r="F433" s="46"/>
-      <c r="G433" s="25"/>
+      <c r="G433" s="48"/>
       <c r="H433" s="57"/>
-      <c r="I433" s="25"/>
+      <c r="I433" s="46"/>
       <c r="J433" s="48"/>
     </row>
     <row r="434" spans="1:10">
-      <c r="A434" s="58" t="s">
+      <c r="A434" s="61" t="s">
         <v>18</v>
       </c>
       <c r="B434" s="46"/>
-      <c r="C434" s="25"/>
-      <c r="D434" s="56"/>
-      <c r="E434" s="25"/>
+      <c r="C434" s="46"/>
+      <c r="D434" s="48"/>
+      <c r="E434" s="57"/>
       <c r="F434" s="46"/>
-      <c r="G434" s="25"/>
+      <c r="G434" s="48"/>
       <c r="H434" s="57"/>
-      <c r="I434" s="25"/>
+      <c r="I434" s="46"/>
       <c r="J434" s="48"/>
     </row>
     <row r="435" spans="1:10">
-      <c r="A435" s="58" t="s">
+      <c r="A435" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B435" s="46"/>
-      <c r="C435" s="25"/>
-      <c r="D435" s="56"/>
-      <c r="E435" s="25"/>
-      <c r="F435" s="46"/>
-      <c r="G435" s="25"/>
-      <c r="H435" s="57"/>
-      <c r="I435" s="25"/>
+      <c r="C435" s="45"/>
+      <c r="D435" s="25"/>
+      <c r="E435" s="57"/>
+      <c r="F435" s="25"/>
+      <c r="G435" s="56"/>
+      <c r="H435" s="25"/>
+      <c r="I435" s="46"/>
       <c r="J435" s="48"/>
     </row>
     <row r="436" spans="1:10">
-      <c r="A436" s="58" t="s">
+      <c r="A436" s="63" t="s">
         <v>20</v>
       </c>
       <c r="B436" s="46"/>
-      <c r="C436" s="25"/>
-      <c r="D436" s="56"/>
-      <c r="E436" s="25"/>
-      <c r="F436" s="46"/>
-      <c r="G436" s="25"/>
-      <c r="H436" s="57"/>
-      <c r="I436" s="25"/>
+      <c r="C436" s="45"/>
+      <c r="D436" s="25"/>
+      <c r="E436" s="57"/>
+      <c r="F436" s="25"/>
+      <c r="G436" s="56"/>
+      <c r="H436" s="25"/>
+      <c r="I436" s="46"/>
       <c r="J436" s="48"/>
     </row>
     <row r="437" spans="1:10">
-      <c r="A437" s="58" t="s">
+      <c r="A437" s="63" t="s">
         <v>21</v>
       </c>
       <c r="B437" s="46"/>
-      <c r="C437" s="25"/>
-      <c r="D437" s="56"/>
-      <c r="E437" s="25"/>
-      <c r="F437" s="46"/>
-      <c r="G437" s="25"/>
-      <c r="H437" s="57"/>
-      <c r="I437" s="25"/>
+      <c r="C437" s="45"/>
+      <c r="D437" s="25"/>
+      <c r="E437" s="57"/>
+      <c r="F437" s="25"/>
+      <c r="G437" s="56"/>
+      <c r="H437" s="25"/>
+      <c r="I437" s="46"/>
       <c r="J437" s="48"/>
     </row>
     <row r="438" spans="1:10">
-      <c r="A438" s="70" t="s">
+      <c r="A438" s="65" t="s">
         <v>22</v>
       </c>
       <c r="B438" s="51"/>
       <c r="C438" s="51"/>
-      <c r="D438" s="68"/>
-      <c r="E438" s="69"/>
+      <c r="D438" s="66"/>
+      <c r="E438" s="67"/>
       <c r="F438" s="51"/>
-      <c r="G438" s="68"/>
-      <c r="H438" s="69"/>
+      <c r="G438" s="66"/>
+      <c r="H438" s="67"/>
       <c r="I438" s="51"/>
       <c r="J438" s="54"/>
     </row>
